--- a/spreadsheet/macrofree/aoai_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/aoai_checklist.ja.xlsx
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>診断が十分でない場合は、Azure OpenAI の前で Azure API Management などのゲートウェイを使用して、受信プロンプトと送信応答の両方をログに記録することを検討してください (許可されている場合)</t>
+          <t>Azure OpenAI Service の診断を有効にして構成します。十分でない場合は、Azure OpenAI の前で Azure API Management などのゲートウェイを使用して、受信プロンプトと送信応答の両方をログに記録することを検討してください (許可されている場合)。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>トークンサイズ、ストリーミングオプションを制限することにより、システムのレイテンシーを改善します</t>
+          <t>トークンのサイズを制限し、チャットボットや会話型インターフェースなどのアプリケーションのストリーミングオプションを制限することで、システムのレイテンシーを改善します。ストリーミングは、ユーザーに段階的に応答を配信することで、Azure OpenAI アプリケーションの体感的なパフォーマンスを向上させることができます</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-cloud-introduction</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/ai-onboarding</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>モデル応答あたりのトークン数に上限を設定します。サイズを最適化して、有効な応答に十分な大きさになるようにします</t>
+          <t>モデル応答あたりのトークン数 (max_tokens と生成する完了の数) に上限を設定します。サイズを最適化して、有効な応答に十分な大きさになるようにします</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>AI検索の信頼性</t>
+          <t>AI 検索ベクトルの制限</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>信頼性のための AI 検索の設定に関するガイダンスを確認します</t>
+          <t>AI Search Vector ストレージの計画と管理</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3930,7 +3930,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
+          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3938,7 +3938,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>71ca7da8-cfa9-462a-8594-946da97dc3a2</t>
+          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3954,12 +3954,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>AI 検索ベクトルの制限</t>
+          <t>DevOpsの</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>AI Search Vector ストレージの計画と管理</t>
+          <t>開発、テスト、運用サポート、lrarning &amp; experimentationなど、さまざまな環境全体でAzure OpenAIインスタンスを確実にデプロイします。LLMOpsプラクティスを適用して、GenAIアプリケーションのライフサイクル管理を自動化します</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3976,7 +3976,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -3984,7 +3984,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3995,23 +3995,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>オペレーションマネジメント</t>
+          <t>コストの最適化</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>DevOpsの</t>
+          <t>原価計算モデル</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>LLMOpsプラクティスを適用して、GenAIアプリケーションのライフサイクル管理を自動化します</t>
+          <t>請求モデルの使用状況を評価します - PAYG と PTU。PAYG から始めて、専用のメモリとコンピューティング、予約容量、および指定されたモデル バージョンに対して一貫した最大レイテンシを提供するため、本番環境で使用量が予測可能な場合は PTU を検討してください</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4022,7 +4022,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4030,7 +4030,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
+          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4041,23 +4041,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>コストの最適化</t>
+          <t>オペレーションマネジメント</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>原価計算モデル</t>
+          <t>DevOpsの</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>請求モデルの使用状況の評価 - PAYG と PTU の比較</t>
+          <t>モデルバージョンを切り替える際のプロンプトとアプリケーションの品質を評価する</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4068,7 +4068,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
+          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
+          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>DevOpsの</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>モデルバージョンを切り替える際のプロンプトとアプリケーションの品質を評価する</t>
+          <t>GenAIアプリを評価、監視、改良して、接地性、関連性、精度、一貫性、流暢さなどの機能を確保</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4122,7 +4122,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
+          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>GenAIアプリを評価、監視、改良して、接地性、関連性、精度、一貫性、流暢さなどの機能を確認します。</t>
+          <t>さまざまな検索パラメーターに基づいて Azure AI Search の結果を評価する</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4158,17 +4158,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
+          <t>294798b1-578b-4219-a46c-eb5443513592</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4189,7 +4185,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>さまざまな検索パラメーターに基づいて Azure AI Search の結果を評価する</t>
+          <t>精度を向上させる方法としてモデルの微調整を検討するのは、データを使用してプロンプトエンジニアリングやRAGなどの他の基本的なアプローチを試した場合のみです</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4204,13 +4200,17 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>294798b1-578b-4219-a46c-eb5443513592</t>
+          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>精度を向上させる方法としてモデルの微調整を検討するのは、データを使用してプロンプトエンジニアリングやRAGなどの他の基本的なアプローチを試した場合のみです</t>
+          <t>プロンプトエンジニアリング手法を使用して、LLM応答の精度を向上させる</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4248,7 +4248,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4256,7 +4256,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
+          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4267,17 +4267,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>オペレーションマネジメント</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>発達</t>
+          <t>セキュリティ監査と侵入テスト</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>プロンプトエンジニアリング手法を使用して、LLM応答の精度を向上させる</t>
+          <t>GenAIアプリケーションをレッドチーム化</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4294,7 +4294,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4302,7 +4302,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
+          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4313,17 +4313,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>オペレーションマネジメント</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ監査と侵入テスト</t>
+          <t>エンドユーザーのフィードバック</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>GenAIアプリケーションをレッドチーム化</t>
+          <t>エンドユーザーにLLM応答のスコアリングオプションを提供し、これらのスコアを追跡します。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4340,7 +4340,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
+          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4348,7 +4348,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
+          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4364,12 +4364,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>エンドユーザーのフィードバック</t>
+          <t>微調整</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>エンドユーザーにLLM応答のスコアリングオプションを提供し、これらのスコアを追跡します。</t>
+          <t>大きなデータ ファイルを使用した微調整のガイダンスに従い、Azure BLOB ストアからデータをインポートします。100 MB 以上の大きなファイルは、マルチパート フォームを介してアップロードすると、要求がアトミックであり、再試行または再開できないため、不安定になる可能性があります</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4386,7 +4386,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/fine-tuning?tabs=turbo%2Cpython-new&amp;pivots=programming-language-studio#import-training-data-from-azure-blob-store</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc411</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4405,23 +4405,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>コストの最適化</t>
+          <t>オペレーションマネジメント</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>クォータ管理</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>クォータ管理の実践を検討する</t>
+          <t>モデルデプロイのレート制限を管理し、従量課金制デプロイの 1 分あたりのトークン (TPM) と 1 分あたりのリクエスト数 (RPM) の使用状況を監視します</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4432,7 +4432,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/quota?tabs=rest</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4440,7 +4440,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc412</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>ロードバランシング</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>APIM ベースのゲートウェイなどのロード バランサー ソリューションを使用して、サービスやリージョン間で負荷と容量を分散します</t>
+          <t>プロビジョニングされたスループット支払いモデルを使用している場合は、プロビジョニング管理された使用率をモニタリングします</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4486,7 +4486,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc413</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4495,221 +4495,598 @@
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>コストの最適化</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>クォータ管理</t>
+        </is>
+      </c>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>クォータ管理の実践について考えてみましょう。動的クォータは、アプリケーションが日和見的に追加の容量を使用できる場合、またはアプリケーション自体が Azure OpenAI API が呼び出される速度を駆動している場合に、特定のユース ケースで使用します</t>
+        </is>
+      </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="n"/>
+      <c r="H84" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+        </is>
+      </c>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>責任あるAI</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>コンテンツの安全性</t>
+        </is>
+      </c>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>コンテンツフィルターを調整して、過度に攻撃的なフィルターによる誤検知を最小限に抑えます</t>
+        </is>
+      </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="n"/>
+      <c r="H85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/content-filters</t>
+        </is>
+      </c>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc414</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>ガバナンスとセキュリティ</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>キー管理</t>
+        </is>
+      </c>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>カスタマー マネージド キーを使用して、Azure OpenAI にアップロードされるモデルとトレーニング データを微調整します</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="n"/>
+      <c r="H86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/encrypt-data-at-rest</t>
+        </is>
+      </c>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc415</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>ガバナンスとセキュリティ</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>ジェイルブレイク保護</t>
+        </is>
+      </c>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>ジェイルブレイク リスク検出を実装して、言語モデルのデプロイをプロンプト インジェクション攻撃から保護します</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="n"/>
+      <c r="H87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/content-safety/concepts/jailbreak-detection</t>
+        </is>
+      </c>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc416</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>ガバナンスとセキュリティ</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>クォータの枯渇</t>
+        </is>
+      </c>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>調整、サービスの分離、ゲートウェイ パターンなどのセキュリティ制御を使用して、モデルの使用クォータを使い果たす可能性のある攻撃を防ぎます</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="n"/>
+      <c r="H88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
+        </is>
+      </c>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc417</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>コストの最適化</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>コストの見積もり</t>
+        </is>
+      </c>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>プロンプトサイズを考慮しながら、コストモデルを開発します。プロンプトの入力と応答のサイズ、およびテキストがトークンにどのように変換されるかを理解すると、実行可能なコスト モデルを作成するのに役立ちます</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="n"/>
+      <c r="H89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a9</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr">
+        <is>
+          <t>コストの最適化</t>
+        </is>
+      </c>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>モデル選択</t>
+        </is>
+      </c>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>モデルを選択するときは、モデルの価格と機能を考慮してください。テキスト生成や完了タスクなどの複雑でないタスクや、言語翻訳やコンテンツ理解などの複雑なタスクには、より低コストのモデルから始めて、より高度なモデルの使用を検討してください。コストを最適化しながら、望ましいアプリケーションパフォーマンスを実現</t>
+        </is>
+      </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/details/cognitive-services/openai-service/</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a1</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>コストの最適化</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>使用の最適化</t>
+        </is>
+      </c>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>微調整などの Azure OpenAI 価格ブレークポイントを最大化し、画像生成などのモデル ブレークポイントを有利に活用できます。微調整は時間単位で課金されるため、1時間あたりに利用できる時間をすべて使用して、次の請求期間に間に合わずに結果を改善します。100 枚の画像を生成する場合のコストは、1 つの画像の場合のコストと同じです</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="n"/>
+      <c r="H91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a2</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>コストの最適化</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>使用の最適化</t>
+        </is>
+      </c>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>未使用の微調整されたモデルは、継続的なホスティング料金が発生しないように、消費されなくなったら削除します</t>
+        </is>
+      </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a3</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>コストの最適化</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>トークンの最適化</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>モデルが有用な応答を生成するのに十分なコンテキストを提供する簡潔なプロンプトを作成します。また、応答長の制限を最適化してください。</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>7f42c78e-78cb-46a2-8ad1-90916e6a8d8g</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>オペレーションマネジメント</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>イアシー</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>コードとしてのインフラストラクチャ (IaC) を使用して、Azure OpenAI、モデル デプロイ、およびモデルの微調整に必要なその他のインフラストラクチャをデプロイします</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/create-account-bicep</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec219</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>オペレーションマネジメント</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>ロードバランシング</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>APIM ベースのゲートウェイなどのロード バランサー ソリューションを使用して、サービスやリージョン間で負荷と容量を分散します</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+        </is>
+      </c>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>オペレーションマネジメント</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>発達</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>コンシューマグループごとに専用のモデルデプロイメントを使用して、コンシューマグループ間のノイズの多い隣人を防ぐのに役立つモデルごとの使用分離を提供することを検討してください</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/multitenant/service/openai</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>2744293b-b628-4537-a551-19b08e8f5855</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
@@ -7971,7 +8348,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
